--- a/natmiOut/OldD2/LR-pairs_lrc2p/Agrn-Atp1a3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Agrn-Atp1a3.xlsx
@@ -537,52 +537,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.1048170597015</v>
+        <v>38.38922700000001</v>
       </c>
       <c r="H2">
-        <v>38.1048170597015</v>
+        <v>76.77845400000001</v>
       </c>
       <c r="I2">
-        <v>0.4522920321139073</v>
+        <v>0.4452295445267456</v>
       </c>
       <c r="J2">
-        <v>0.4522920321139073</v>
+        <v>0.3751312191747254</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.407433641414388</v>
+        <v>0.431063</v>
       </c>
       <c r="N2">
-        <v>0.407433641414388</v>
+        <v>1.293189</v>
       </c>
       <c r="O2">
-        <v>0.01030422993990601</v>
+        <v>0.01068339889080477</v>
       </c>
       <c r="P2">
-        <v>0.01030422993990601</v>
+        <v>0.01069009904727195</v>
       </c>
       <c r="Q2">
-        <v>15.52518437006328</v>
+        <v>16.548175358301</v>
       </c>
       <c r="R2">
-        <v>15.52518437006328</v>
+        <v>99.28905214980601</v>
       </c>
       <c r="S2">
-        <v>0.004660521098889056</v>
+        <v>0.004756564822150545</v>
       </c>
       <c r="T2">
-        <v>0.004660521098889056</v>
+        <v>0.004010189888701697</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.1048170597015</v>
+        <v>38.38922700000001</v>
       </c>
       <c r="H3">
-        <v>38.1048170597015</v>
+        <v>76.77845400000001</v>
       </c>
       <c r="I3">
-        <v>0.4522920321139073</v>
+        <v>0.4452295445267456</v>
       </c>
       <c r="J3">
-        <v>0.4522920321139073</v>
+        <v>0.3751312191747254</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.3829231982415</v>
+        <v>18.65163266666667</v>
       </c>
       <c r="N3">
-        <v>18.3829231982415</v>
+        <v>55.954898</v>
       </c>
       <c r="O3">
-        <v>0.4649146470692581</v>
+        <v>0.4622591865754301</v>
       </c>
       <c r="P3">
-        <v>0.4649146470692581</v>
+        <v>0.4625490951438647</v>
       </c>
       <c r="Q3">
-        <v>700.4779254915352</v>
+        <v>716.0217603612822</v>
       </c>
       <c r="R3">
-        <v>700.4779254915352</v>
+        <v>4296.130562167693</v>
       </c>
       <c r="S3">
-        <v>0.2102771904824748</v>
+        <v>0.2058114470922827</v>
       </c>
       <c r="T3">
-        <v>0.2102771904824748</v>
+        <v>0.173516605989484</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.1048170597015</v>
+        <v>38.38922700000001</v>
       </c>
       <c r="H4">
-        <v>38.1048170597015</v>
+        <v>76.77845400000001</v>
       </c>
       <c r="I4">
-        <v>0.4522920321139073</v>
+        <v>0.4452295445267456</v>
       </c>
       <c r="J4">
-        <v>0.4522920321139073</v>
+        <v>0.3751312191747254</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.5556343928437</v>
+        <v>21.059022</v>
       </c>
       <c r="N4">
-        <v>20.5556343928437</v>
+        <v>63.177066</v>
       </c>
       <c r="O4">
-        <v>0.5198637564861182</v>
+        <v>0.521923552418633</v>
       </c>
       <c r="P4">
-        <v>0.5198637564861182</v>
+        <v>0.5222508798451249</v>
       </c>
       <c r="Q4">
-        <v>783.2686880854176</v>
+        <v>808.4395759559941</v>
       </c>
       <c r="R4">
-        <v>783.2686880854176</v>
+        <v>4850.637455735964</v>
       </c>
       <c r="S4">
-        <v>0.2351302348434759</v>
+        <v>0.232375785521129</v>
       </c>
       <c r="T4">
-        <v>0.2351302348434759</v>
+        <v>0.1959126092713747</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>38.1048170597015</v>
+        <v>38.38922700000001</v>
       </c>
       <c r="H5">
-        <v>38.1048170597015</v>
+        <v>76.77845400000001</v>
       </c>
       <c r="I5">
-        <v>0.4522920321139073</v>
+        <v>0.4452295445267456</v>
       </c>
       <c r="J5">
-        <v>0.4522920321139073</v>
+        <v>0.3751312191747254</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.12404088294753</v>
+        <v>0.131278</v>
       </c>
       <c r="N5">
-        <v>0.12404088294753</v>
+        <v>0.393834</v>
       </c>
       <c r="O5">
-        <v>0.003137064910504908</v>
+        <v>0.003253573699406046</v>
       </c>
       <c r="P5">
-        <v>0.003137064910504908</v>
+        <v>0.003255614197293127</v>
       </c>
       <c r="Q5">
-        <v>4.726555152639478</v>
+        <v>5.039660942106001</v>
       </c>
       <c r="R5">
-        <v>4.726555152639478</v>
+        <v>30.23796565263601</v>
       </c>
       <c r="S5">
-        <v>0.001418869463245498</v>
+        <v>0.001448587136270752</v>
       </c>
       <c r="T5">
-        <v>0.001418869463245498</v>
+        <v>0.001221282522993116</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.1048170597015</v>
+        <v>38.38922700000001</v>
       </c>
       <c r="H6">
-        <v>38.1048170597015</v>
+        <v>76.77845400000001</v>
       </c>
       <c r="I6">
-        <v>0.4522920321139073</v>
+        <v>0.4452295445267456</v>
       </c>
       <c r="J6">
-        <v>0.4522920321139073</v>
+        <v>0.3751312191747254</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0703938834416741</v>
+        <v>0.0758675</v>
       </c>
       <c r="N6">
-        <v>0.0703938834416741</v>
+        <v>0.151735</v>
       </c>
       <c r="O6">
-        <v>0.001780301594212778</v>
+        <v>0.001880288415726079</v>
       </c>
       <c r="P6">
-        <v>0.001780301594212778</v>
+        <v>0.001254311766445438</v>
       </c>
       <c r="Q6">
-        <v>2.682346050666943</v>
+        <v>2.912494679422501</v>
       </c>
       <c r="R6">
-        <v>2.682346050666943</v>
+        <v>11.64997871769</v>
       </c>
       <c r="S6">
-        <v>0.0008052162258221264</v>
+        <v>0.0008371599549126381</v>
       </c>
       <c r="T6">
-        <v>0.0008052162258221264</v>
+        <v>0.0004705315021718806</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.75215847000328</v>
+        <v>3.154770000000001</v>
       </c>
       <c r="H7">
-        <v>2.75215847000328</v>
+        <v>9.464310000000001</v>
       </c>
       <c r="I7">
-        <v>0.03266724375416898</v>
+        <v>0.03658830666704076</v>
       </c>
       <c r="J7">
-        <v>0.03266724375416898</v>
+        <v>0.04624159466596638</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.407433641414388</v>
+        <v>0.431063</v>
       </c>
       <c r="N7">
-        <v>0.407433641414388</v>
+        <v>1.293189</v>
       </c>
       <c r="O7">
-        <v>0.01030422993990601</v>
+        <v>0.01068339889080477</v>
       </c>
       <c r="P7">
-        <v>0.01030422993990601</v>
+        <v>0.01069009904727195</v>
       </c>
       <c r="Q7">
-        <v>1.121321947182887</v>
+        <v>1.35990462051</v>
       </c>
       <c r="R7">
-        <v>1.121321947182887</v>
+        <v>12.23914158459</v>
       </c>
       <c r="S7">
-        <v>0.0003366107911459157</v>
+        <v>0.0003908874748630879</v>
       </c>
       <c r="T7">
-        <v>0.0003366107911459157</v>
+        <v>0.0004943272270829829</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.75215847000328</v>
+        <v>3.154770000000001</v>
       </c>
       <c r="H8">
-        <v>2.75215847000328</v>
+        <v>9.464310000000001</v>
       </c>
       <c r="I8">
-        <v>0.03266724375416898</v>
+        <v>0.03658830666704076</v>
       </c>
       <c r="J8">
-        <v>0.03266724375416898</v>
+        <v>0.04624159466596638</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.3829231982415</v>
+        <v>18.65163266666667</v>
       </c>
       <c r="N8">
-        <v>18.3829231982415</v>
+        <v>55.954898</v>
       </c>
       <c r="O8">
-        <v>0.4649146470692581</v>
+        <v>0.4622591865754301</v>
       </c>
       <c r="P8">
-        <v>0.4649146470692581</v>
+        <v>0.4625490951438647</v>
       </c>
       <c r="Q8">
-        <v>50.59271778346012</v>
+        <v>58.84161118782001</v>
       </c>
       <c r="R8">
-        <v>50.59271778346012</v>
+        <v>529.5745006903801</v>
       </c>
       <c r="S8">
-        <v>0.0151874801006949</v>
+        <v>0.01691328087807865</v>
       </c>
       <c r="T8">
-        <v>0.0151874801006949</v>
+        <v>0.02138900777075211</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.75215847000328</v>
+        <v>3.154770000000001</v>
       </c>
       <c r="H9">
-        <v>2.75215847000328</v>
+        <v>9.464310000000001</v>
       </c>
       <c r="I9">
-        <v>0.03266724375416898</v>
+        <v>0.03658830666704076</v>
       </c>
       <c r="J9">
-        <v>0.03266724375416898</v>
+        <v>0.04624159466596638</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.5556343928437</v>
+        <v>21.059022</v>
       </c>
       <c r="N9">
-        <v>20.5556343928437</v>
+        <v>63.177066</v>
       </c>
       <c r="O9">
-        <v>0.5198637564861182</v>
+        <v>0.521923552418633</v>
       </c>
       <c r="P9">
-        <v>0.5198637564861182</v>
+        <v>0.5222508798451249</v>
       </c>
       <c r="Q9">
-        <v>56.57236330055552</v>
+        <v>66.43637083494001</v>
       </c>
       <c r="R9">
-        <v>56.57236330055552</v>
+        <v>597.9273375144601</v>
       </c>
       <c r="S9">
-        <v>0.01698251605208997</v>
+        <v>0.01909629899264427</v>
       </c>
       <c r="T9">
-        <v>0.01698251605208997</v>
+        <v>0.02414971349974258</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.75215847000328</v>
+        <v>3.154770000000001</v>
       </c>
       <c r="H10">
-        <v>2.75215847000328</v>
+        <v>9.464310000000001</v>
       </c>
       <c r="I10">
-        <v>0.03266724375416898</v>
+        <v>0.03658830666704076</v>
       </c>
       <c r="J10">
-        <v>0.03266724375416898</v>
+        <v>0.04624159466596638</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.12404088294753</v>
+        <v>0.131278</v>
       </c>
       <c r="N10">
-        <v>0.12404088294753</v>
+        <v>0.393834</v>
       </c>
       <c r="O10">
-        <v>0.003137064910504908</v>
+        <v>0.003253573699406046</v>
       </c>
       <c r="P10">
-        <v>0.003137064910504908</v>
+        <v>0.003255614197293127</v>
       </c>
       <c r="Q10">
-        <v>0.3413801666307301</v>
+        <v>0.4141518960600001</v>
       </c>
       <c r="R10">
-        <v>0.3413801666307301</v>
+        <v>3.727367064540001</v>
       </c>
       <c r="S10">
-        <v>0.0001024792641041141</v>
+        <v>0.0001190427522776867</v>
       </c>
       <c r="T10">
-        <v>0.0001024792641041141</v>
+        <v>0.0001505447920999943</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.75215847000328</v>
+        <v>3.154770000000001</v>
       </c>
       <c r="H11">
-        <v>2.75215847000328</v>
+        <v>9.464310000000001</v>
       </c>
       <c r="I11">
-        <v>0.03266724375416898</v>
+        <v>0.03658830666704076</v>
       </c>
       <c r="J11">
-        <v>0.03266724375416898</v>
+        <v>0.04624159466596638</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.0703938834416741</v>
+        <v>0.0758675</v>
       </c>
       <c r="N11">
-        <v>0.0703938834416741</v>
+        <v>0.151735</v>
       </c>
       <c r="O11">
-        <v>0.001780301594212778</v>
+        <v>0.001880288415726079</v>
       </c>
       <c r="P11">
-        <v>0.001780301594212778</v>
+        <v>0.001254311766445438</v>
       </c>
       <c r="Q11">
-        <v>0.193735122550427</v>
+        <v>0.2393445129750001</v>
       </c>
       <c r="R11">
-        <v>0.193735122550427</v>
+        <v>1.43606707785</v>
       </c>
       <c r="S11">
-        <v>5.815754613408447E-05</v>
+        <v>6.879656917707E-05</v>
       </c>
       <c r="T11">
-        <v>5.815754613408447E-05</v>
+        <v>5.800137628872224E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.3261510507431</v>
+        <v>2.963441333333333</v>
       </c>
       <c r="H12">
-        <v>2.3261510507431</v>
+        <v>8.890324</v>
       </c>
       <c r="I12">
-        <v>0.02761067148271828</v>
+        <v>0.03436932020203823</v>
       </c>
       <c r="J12">
-        <v>0.02761067148271828</v>
+        <v>0.04343716117256439</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.407433641414388</v>
+        <v>0.431063</v>
       </c>
       <c r="N12">
-        <v>0.407433641414388</v>
+        <v>1.293189</v>
       </c>
       <c r="O12">
-        <v>0.01030422993990601</v>
+        <v>0.01068339889080477</v>
       </c>
       <c r="P12">
-        <v>0.01030422993990601</v>
+        <v>0.01069009904727195</v>
       </c>
       <c r="Q12">
-        <v>0.9477521930841659</v>
+        <v>1.277429911470667</v>
       </c>
       <c r="R12">
-        <v>0.9477521930841659</v>
+        <v>11.496869203236</v>
       </c>
       <c r="S12">
-        <v>0.0002845067077531349</v>
+        <v>0.0003671811573241691</v>
       </c>
       <c r="T12">
-        <v>0.0002845067077531349</v>
+        <v>0.0004643475552670287</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.3261510507431</v>
+        <v>2.963441333333333</v>
       </c>
       <c r="H13">
-        <v>2.3261510507431</v>
+        <v>8.890324</v>
       </c>
       <c r="I13">
-        <v>0.02761067148271828</v>
+        <v>0.03436932020203823</v>
       </c>
       <c r="J13">
-        <v>0.02761067148271828</v>
+        <v>0.04343716117256439</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.3829231982415</v>
+        <v>18.65163266666667</v>
       </c>
       <c r="N13">
-        <v>18.3829231982415</v>
+        <v>55.954898</v>
       </c>
       <c r="O13">
-        <v>0.4649146470692581</v>
+        <v>0.4622591865754301</v>
       </c>
       <c r="P13">
-        <v>0.4649146470692581</v>
+        <v>0.4625490951438647</v>
       </c>
       <c r="Q13">
-        <v>42.76145611331917</v>
+        <v>55.27301917855023</v>
       </c>
       <c r="R13">
-        <v>42.76145611331917</v>
+        <v>497.457172606952</v>
       </c>
       <c r="S13">
-        <v>0.0128366055877332</v>
+        <v>0.01588753399974469</v>
       </c>
       <c r="T13">
-        <v>0.0128366055877332</v>
+        <v>0.02009181959598787</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>23</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.3261510507431</v>
+        <v>2.963441333333333</v>
       </c>
       <c r="H14">
-        <v>2.3261510507431</v>
+        <v>8.890324</v>
       </c>
       <c r="I14">
-        <v>0.02761067148271828</v>
+        <v>0.03436932020203823</v>
       </c>
       <c r="J14">
-        <v>0.02761067148271828</v>
+        <v>0.04343716117256439</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.5556343928437</v>
+        <v>21.059022</v>
       </c>
       <c r="N14">
-        <v>20.5556343928437</v>
+        <v>63.177066</v>
       </c>
       <c r="O14">
-        <v>0.5198637564861182</v>
+        <v>0.521923552418633</v>
       </c>
       <c r="P14">
-        <v>0.5198637564861182</v>
+        <v>0.5222508798451249</v>
       </c>
       <c r="Q14">
-        <v>47.81551054160438</v>
+        <v>62.407176234376</v>
       </c>
       <c r="R14">
-        <v>47.81551054160438</v>
+        <v>561.664586109384</v>
       </c>
       <c r="S14">
-        <v>0.01435378739611006</v>
+        <v>0.01793815769406128</v>
       </c>
       <c r="T14">
-        <v>0.01435378739611006</v>
+        <v>0.02268509564034625</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>24</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.3261510507431</v>
+        <v>2.963441333333333</v>
       </c>
       <c r="H15">
-        <v>2.3261510507431</v>
+        <v>8.890324</v>
       </c>
       <c r="I15">
-        <v>0.02761067148271828</v>
+        <v>0.03436932020203823</v>
       </c>
       <c r="J15">
-        <v>0.02761067148271828</v>
+        <v>0.04343716117256439</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.12404088294753</v>
+        <v>0.131278</v>
       </c>
       <c r="N15">
-        <v>0.12404088294753</v>
+        <v>0.393834</v>
       </c>
       <c r="O15">
-        <v>0.003137064910504908</v>
+        <v>0.003253573699406046</v>
       </c>
       <c r="P15">
-        <v>0.003137064910504908</v>
+        <v>0.003255614197293127</v>
       </c>
       <c r="Q15">
-        <v>0.2885378302034988</v>
+        <v>0.3890346513573333</v>
       </c>
       <c r="R15">
-        <v>0.2885378302034988</v>
+        <v>3.501311862216</v>
       </c>
       <c r="S15">
-        <v>8.661646866391403E-05</v>
+        <v>0.0001118231162758165</v>
       </c>
       <c r="T15">
-        <v>8.661646866391403E-05</v>
+        <v>0.0001414146386035104</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.3261510507431</v>
+        <v>2.963441333333333</v>
       </c>
       <c r="H16">
-        <v>2.3261510507431</v>
+        <v>8.890324</v>
       </c>
       <c r="I16">
-        <v>0.02761067148271828</v>
+        <v>0.03436932020203823</v>
       </c>
       <c r="J16">
-        <v>0.02761067148271828</v>
+        <v>0.04343716117256439</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.0703938834416741</v>
+        <v>0.0758675</v>
       </c>
       <c r="N16">
-        <v>0.0703938834416741</v>
+        <v>0.151735</v>
       </c>
       <c r="O16">
-        <v>0.001780301594212778</v>
+        <v>0.001880288415726079</v>
       </c>
       <c r="P16">
-        <v>0.001780301594212778</v>
+        <v>0.001254311766445438</v>
       </c>
       <c r="Q16">
-        <v>0.1637468059337375</v>
+        <v>0.2248288853566667</v>
       </c>
       <c r="R16">
-        <v>0.1637468059337375</v>
+        <v>1.34897331214</v>
       </c>
       <c r="S16">
-        <v>4.915532245796865E-05</v>
+        <v>6.462423463227278E-05</v>
       </c>
       <c r="T16">
-        <v>4.915532245796865E-05</v>
+        <v>5.448374235973443E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>21</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.85670622736209</v>
+        <v>7.153525333333334</v>
       </c>
       <c r="H17">
-        <v>6.85670622736209</v>
+        <v>21.460576</v>
       </c>
       <c r="I17">
-        <v>0.08138691725832882</v>
+        <v>0.08296496373632466</v>
       </c>
       <c r="J17">
-        <v>0.08138691725832882</v>
+        <v>0.1048540524021472</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.407433641414388</v>
+        <v>0.431063</v>
       </c>
       <c r="N17">
-        <v>0.407433641414388</v>
+        <v>1.293189</v>
       </c>
       <c r="O17">
-        <v>0.01030422993990601</v>
+        <v>0.01068339889080477</v>
       </c>
       <c r="P17">
-        <v>0.01030422993990601</v>
+        <v>0.01069009904727195</v>
       </c>
       <c r="Q17">
-        <v>2.793652786322847</v>
+        <v>3.083620090762667</v>
       </c>
       <c r="R17">
-        <v>2.793652786322847</v>
+        <v>27.752580816864</v>
       </c>
       <c r="S17">
-        <v>0.0008386295095299251</v>
+        <v>0.0008863478015563085</v>
       </c>
       <c r="T17">
-        <v>0.0008386295095299251</v>
+        <v>0.001120900205686797</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.85670622736209</v>
+        <v>7.153525333333334</v>
       </c>
       <c r="H18">
-        <v>6.85670622736209</v>
+        <v>21.460576</v>
       </c>
       <c r="I18">
-        <v>0.08138691725832882</v>
+        <v>0.08296496373632466</v>
       </c>
       <c r="J18">
-        <v>0.08138691725832882</v>
+        <v>0.1048540524021472</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>18.3829231982415</v>
+        <v>18.65163266666667</v>
       </c>
       <c r="N18">
-        <v>18.3829231982415</v>
+        <v>55.954898</v>
       </c>
       <c r="O18">
-        <v>0.4649146470692581</v>
+        <v>0.4622591865754301</v>
       </c>
       <c r="P18">
-        <v>0.4649146470692581</v>
+        <v>0.4625490951438647</v>
       </c>
       <c r="Q18">
-        <v>126.0463039705015</v>
+        <v>133.4249267890276</v>
       </c>
       <c r="R18">
-        <v>126.0463039705015</v>
+        <v>1200.824341101248</v>
       </c>
       <c r="S18">
-        <v>0.03783796991321085</v>
+        <v>0.0383513166510135</v>
       </c>
       <c r="T18">
-        <v>0.03783796991321085</v>
+        <v>0.04850014706078058</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.85670622736209</v>
+        <v>7.153525333333334</v>
       </c>
       <c r="H19">
-        <v>6.85670622736209</v>
+        <v>21.460576</v>
       </c>
       <c r="I19">
-        <v>0.08138691725832882</v>
+        <v>0.08296496373632466</v>
       </c>
       <c r="J19">
-        <v>0.08138691725832882</v>
+        <v>0.1048540524021472</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>20.5556343928437</v>
+        <v>21.059022</v>
       </c>
       <c r="N19">
-        <v>20.5556343928437</v>
+        <v>63.177066</v>
       </c>
       <c r="O19">
-        <v>0.5198637564861182</v>
+        <v>0.521923552418633</v>
       </c>
       <c r="P19">
-        <v>0.5198637564861182</v>
+        <v>0.5222508798451249</v>
       </c>
       <c r="Q19">
-        <v>140.9439463487898</v>
+        <v>150.646247372224</v>
       </c>
       <c r="R19">
-        <v>140.9439463487898</v>
+        <v>1355.816226350016</v>
       </c>
       <c r="S19">
-        <v>0.0423101085347397</v>
+        <v>0.04330136859954563</v>
       </c>
       <c r="T19">
-        <v>0.0423101085347397</v>
+        <v>0.05476012112234822</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.85670622736209</v>
+        <v>7.153525333333334</v>
       </c>
       <c r="H20">
-        <v>6.85670622736209</v>
+        <v>21.460576</v>
       </c>
       <c r="I20">
-        <v>0.08138691725832882</v>
+        <v>0.08296496373632466</v>
       </c>
       <c r="J20">
-        <v>0.08138691725832882</v>
+        <v>0.1048540524021472</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.12404088294753</v>
+        <v>0.131278</v>
       </c>
       <c r="N20">
-        <v>0.12404088294753</v>
+        <v>0.393834</v>
       </c>
       <c r="O20">
-        <v>0.003137064910504908</v>
+        <v>0.003253573699406046</v>
       </c>
       <c r="P20">
-        <v>0.003137064910504908</v>
+        <v>0.003255614197293127</v>
       </c>
       <c r="Q20">
-        <v>0.850511894553821</v>
+        <v>0.9391004987093334</v>
       </c>
       <c r="R20">
-        <v>0.850511894553821</v>
+        <v>8.451904488384001</v>
       </c>
       <c r="S20">
-        <v>0.0002553160423052696</v>
+        <v>0.0002699326239846822</v>
       </c>
       <c r="T20">
-        <v>0.0002553160423052696</v>
+        <v>0.0003413643416441481</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.85670622736209</v>
+        <v>7.153525333333334</v>
       </c>
       <c r="H21">
-        <v>6.85670622736209</v>
+        <v>21.460576</v>
       </c>
       <c r="I21">
-        <v>0.08138691725832882</v>
+        <v>0.08296496373632466</v>
       </c>
       <c r="J21">
-        <v>0.08138691725832882</v>
+        <v>0.1048540524021472</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.0703938834416741</v>
+        <v>0.0758675</v>
       </c>
       <c r="N21">
-        <v>0.0703938834416741</v>
+        <v>0.151735</v>
       </c>
       <c r="O21">
-        <v>0.001780301594212778</v>
+        <v>0.001880288415726079</v>
       </c>
       <c r="P21">
-        <v>0.001780301594212778</v>
+        <v>0.001254311766445438</v>
       </c>
       <c r="Q21">
-        <v>0.482670178962728</v>
+        <v>0.5427200832266668</v>
       </c>
       <c r="R21">
-        <v>0.482670178962728</v>
+        <v>3.25632049936</v>
       </c>
       <c r="S21">
-        <v>0.0001448932585430663</v>
+        <v>0.0001559980602245455</v>
       </c>
       <c r="T21">
-        <v>0.0001448932585430663</v>
+        <v>0.0001315196716874998</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>21</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>18.712391827467</v>
+        <v>18.952291</v>
       </c>
       <c r="H22">
-        <v>18.712391827467</v>
+        <v>56.85687299999999</v>
       </c>
       <c r="I22">
-        <v>0.2221101261842148</v>
+        <v>0.2198043708894773</v>
       </c>
       <c r="J22">
-        <v>0.2221101261842148</v>
+        <v>0.2777965298305241</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.407433641414388</v>
+        <v>0.431063</v>
       </c>
       <c r="N22">
-        <v>0.407433641414388</v>
+        <v>1.293189</v>
       </c>
       <c r="O22">
-        <v>0.01030422993990601</v>
+        <v>0.01068339889080477</v>
       </c>
       <c r="P22">
-        <v>0.01030422993990601</v>
+        <v>0.01069009904727195</v>
       </c>
       <c r="Q22">
-        <v>7.624057941837713</v>
+        <v>8.169631415332999</v>
       </c>
       <c r="R22">
-        <v>7.624057941837713</v>
+        <v>73.52668273799699</v>
       </c>
       <c r="S22">
-        <v>0.002288673812183688</v>
+        <v>0.002348257772154682</v>
       </c>
       <c r="T22">
-        <v>0.002288673812183688</v>
+        <v>0.00296967241887674</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>18.712391827467</v>
+        <v>18.952291</v>
       </c>
       <c r="H23">
-        <v>18.712391827467</v>
+        <v>56.85687299999999</v>
       </c>
       <c r="I23">
-        <v>0.2221101261842148</v>
+        <v>0.2198043708894773</v>
       </c>
       <c r="J23">
-        <v>0.2221101261842148</v>
+        <v>0.2777965298305241</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>18.3829231982415</v>
+        <v>18.65163266666667</v>
       </c>
       <c r="N23">
-        <v>18.3829231982415</v>
+        <v>55.954898</v>
       </c>
       <c r="O23">
-        <v>0.4649146470692581</v>
+        <v>0.4622591865754301</v>
       </c>
       <c r="P23">
-        <v>0.4649146470692581</v>
+        <v>0.4625490951438647</v>
       </c>
       <c r="Q23">
-        <v>343.9884618197277</v>
+        <v>353.4911699237726</v>
       </c>
       <c r="R23">
-        <v>343.9884618197277</v>
+        <v>3181.420529313953</v>
       </c>
       <c r="S23">
-        <v>0.1032622509254426</v>
+        <v>0.1016065896930939</v>
       </c>
       <c r="T23">
-        <v>0.1032622509254426</v>
+        <v>0.1284945335072145</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>18.712391827467</v>
+        <v>18.952291</v>
       </c>
       <c r="H24">
-        <v>18.712391827467</v>
+        <v>56.85687299999999</v>
       </c>
       <c r="I24">
-        <v>0.2221101261842148</v>
+        <v>0.2198043708894773</v>
       </c>
       <c r="J24">
-        <v>0.2221101261842148</v>
+        <v>0.2777965298305241</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>20.5556343928437</v>
+        <v>21.059022</v>
       </c>
       <c r="N24">
-        <v>20.5556343928437</v>
+        <v>63.177066</v>
       </c>
       <c r="O24">
-        <v>0.5198637564861182</v>
+        <v>0.521923552418633</v>
       </c>
       <c r="P24">
-        <v>0.5198637564861182</v>
+        <v>0.5222508798451249</v>
       </c>
       <c r="Q24">
-        <v>384.645085021048</v>
+        <v>399.1167131194019</v>
       </c>
       <c r="R24">
-        <v>384.645085021048</v>
+        <v>3592.050418074617</v>
       </c>
       <c r="S24">
-        <v>0.1154670045517316</v>
+        <v>0.1147210780917788</v>
       </c>
       <c r="T24">
-        <v>0.1154670045517316</v>
+        <v>0.1450794821219137</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>18.712391827467</v>
+        <v>18.952291</v>
       </c>
       <c r="H25">
-        <v>18.712391827467</v>
+        <v>56.85687299999999</v>
       </c>
       <c r="I25">
-        <v>0.2221101261842148</v>
+        <v>0.2198043708894773</v>
       </c>
       <c r="J25">
-        <v>0.2221101261842148</v>
+        <v>0.2777965298305241</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.12404088294753</v>
+        <v>0.131278</v>
       </c>
       <c r="N25">
-        <v>0.12404088294753</v>
+        <v>0.393834</v>
       </c>
       <c r="O25">
-        <v>0.003137064910504908</v>
+        <v>0.003253573699406046</v>
       </c>
       <c r="P25">
-        <v>0.003137064910504908</v>
+        <v>0.003255614197293127</v>
       </c>
       <c r="Q25">
-        <v>2.321101604339151</v>
+        <v>2.488018857898</v>
       </c>
       <c r="R25">
-        <v>2.321101604339151</v>
+        <v>22.392169721082</v>
       </c>
       <c r="S25">
-        <v>0.0006967738831203175</v>
+        <v>0.0007151497201404953</v>
       </c>
       <c r="T25">
-        <v>0.0006967738831203175</v>
+        <v>0.000904398326475018</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>25</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>18.712391827467</v>
+        <v>18.952291</v>
       </c>
       <c r="H26">
-        <v>18.712391827467</v>
+        <v>56.85687299999999</v>
       </c>
       <c r="I26">
-        <v>0.2221101261842148</v>
+        <v>0.2198043708894773</v>
       </c>
       <c r="J26">
-        <v>0.2221101261842148</v>
+        <v>0.2777965298305241</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.0703938834416741</v>
+        <v>0.0758675</v>
       </c>
       <c r="N26">
-        <v>0.0703938834416741</v>
+        <v>0.151735</v>
       </c>
       <c r="O26">
-        <v>0.001780301594212778</v>
+        <v>0.001880288415726079</v>
       </c>
       <c r="P26">
-        <v>0.001780301594212778</v>
+        <v>0.001254311766445438</v>
       </c>
       <c r="Q26">
-        <v>1.317237929217647</v>
+        <v>1.4378629374425</v>
       </c>
       <c r="R26">
-        <v>1.317237929217647</v>
+        <v>8.627177624654999</v>
       </c>
       <c r="S26">
-        <v>0.0003954230117365589</v>
+        <v>0.0004132956123094428</v>
       </c>
       <c r="T26">
-        <v>0.0003954230117365589</v>
+        <v>0.0003484434560441376</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>15.4960361214038</v>
+        <v>15.6101945</v>
       </c>
       <c r="H27">
-        <v>15.4960361214038</v>
+        <v>31.220389</v>
       </c>
       <c r="I27">
-        <v>0.1839330092066617</v>
+        <v>0.1810434939783733</v>
       </c>
       <c r="J27">
-        <v>0.1839330092066617</v>
+        <v>0.1525394427540724</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.407433641414388</v>
+        <v>0.431063</v>
       </c>
       <c r="N27">
-        <v>0.407433641414388</v>
+        <v>1.293189</v>
       </c>
       <c r="O27">
-        <v>0.01030422993990601</v>
+        <v>0.01068339889080477</v>
       </c>
       <c r="P27">
-        <v>0.01030422993990601</v>
+        <v>0.01069009904727195</v>
       </c>
       <c r="Q27">
-        <v>6.313606424432439</v>
+        <v>6.728977271753499</v>
       </c>
       <c r="R27">
-        <v>6.313606424432439</v>
+        <v>40.37386363052099</v>
       </c>
       <c r="S27">
-        <v>0.001895288020404291</v>
+        <v>0.001934159862755973</v>
       </c>
       <c r="T27">
-        <v>0.001895288020404291</v>
+        <v>0.001630661751656704</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>15.4960361214038</v>
+        <v>15.6101945</v>
       </c>
       <c r="H28">
-        <v>15.4960361214038</v>
+        <v>31.220389</v>
       </c>
       <c r="I28">
-        <v>0.1839330092066617</v>
+        <v>0.1810434939783733</v>
       </c>
       <c r="J28">
-        <v>0.1839330092066617</v>
+        <v>0.1525394427540724</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>18.3829231982415</v>
+        <v>18.65163266666667</v>
       </c>
       <c r="N28">
-        <v>18.3829231982415</v>
+        <v>55.954898</v>
       </c>
       <c r="O28">
-        <v>0.4649146470692581</v>
+        <v>0.4622591865754301</v>
       </c>
       <c r="P28">
-        <v>0.4649146470692581</v>
+        <v>0.4625490951438647</v>
       </c>
       <c r="Q28">
-        <v>284.8624418969421</v>
+        <v>291.1556136692203</v>
       </c>
       <c r="R28">
-        <v>284.8624418969421</v>
+        <v>1746.933682015322</v>
       </c>
       <c r="S28">
-        <v>0.0855131500597017</v>
+        <v>0.08368901826121664</v>
       </c>
       <c r="T28">
-        <v>0.0855131500597017</v>
+        <v>0.07055698121964556</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>15.4960361214038</v>
+        <v>15.6101945</v>
       </c>
       <c r="H29">
-        <v>15.4960361214038</v>
+        <v>31.220389</v>
       </c>
       <c r="I29">
-        <v>0.1839330092066617</v>
+        <v>0.1810434939783733</v>
       </c>
       <c r="J29">
-        <v>0.1839330092066617</v>
+        <v>0.1525394427540724</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>20.5556343928437</v>
+        <v>21.059022</v>
       </c>
       <c r="N29">
-        <v>20.5556343928437</v>
+        <v>63.177066</v>
       </c>
       <c r="O29">
-        <v>0.5198637564861182</v>
+        <v>0.521923552418633</v>
       </c>
       <c r="P29">
-        <v>0.5198637564861182</v>
+        <v>0.5222508798451249</v>
       </c>
       <c r="Q29">
-        <v>318.5308530498762</v>
+        <v>328.735429399779</v>
       </c>
       <c r="R29">
-        <v>318.5308530498762</v>
+        <v>1972.412576398674</v>
       </c>
       <c r="S29">
-        <v>0.09562010510797089</v>
+        <v>0.094490863519474</v>
       </c>
       <c r="T29">
-        <v>0.09562010510797089</v>
+        <v>0.07966385818939939</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>15.4960361214038</v>
+        <v>15.6101945</v>
       </c>
       <c r="H30">
-        <v>15.4960361214038</v>
+        <v>31.220389</v>
       </c>
       <c r="I30">
-        <v>0.1839330092066617</v>
+        <v>0.1810434939783733</v>
       </c>
       <c r="J30">
-        <v>0.1839330092066617</v>
+        <v>0.1525394427540724</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.12404088294753</v>
+        <v>0.131278</v>
       </c>
       <c r="N30">
-        <v>0.12404088294753</v>
+        <v>0.393834</v>
       </c>
       <c r="O30">
-        <v>0.003137064910504908</v>
+        <v>0.003253573699406046</v>
       </c>
       <c r="P30">
-        <v>0.003137064910504908</v>
+        <v>0.003255614197293127</v>
       </c>
       <c r="Q30">
-        <v>1.922142002685745</v>
+        <v>2.049275113571</v>
       </c>
       <c r="R30">
-        <v>1.922142002685745</v>
+        <v>12.295650681426</v>
       </c>
       <c r="S30">
-        <v>0.0005770097890657944</v>
+        <v>0.0005890383504566123</v>
       </c>
       <c r="T30">
-        <v>0.0005770097890657944</v>
+        <v>0.0004966095754773404</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>15.4960361214038</v>
+        <v>15.6101945</v>
       </c>
       <c r="H31">
-        <v>15.4960361214038</v>
+        <v>31.220389</v>
       </c>
       <c r="I31">
-        <v>0.1839330092066617</v>
+        <v>0.1810434939783733</v>
       </c>
       <c r="J31">
-        <v>0.1839330092066617</v>
+        <v>0.1525394427540724</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.0703938834416741</v>
+        <v>0.0758675</v>
       </c>
       <c r="N31">
-        <v>0.0703938834416741</v>
+        <v>0.151735</v>
       </c>
       <c r="O31">
-        <v>0.001780301594212778</v>
+        <v>0.001880288415726079</v>
       </c>
       <c r="P31">
-        <v>0.001780301594212778</v>
+        <v>0.001254311766445438</v>
       </c>
       <c r="Q31">
-        <v>1.090826160538071</v>
+        <v>1.18430643122875</v>
       </c>
       <c r="R31">
-        <v>1.090826160538071</v>
+        <v>4.737225724915</v>
       </c>
       <c r="S31">
-        <v>0.0003274562295189734</v>
+        <v>0.0003404139844701095</v>
       </c>
       <c r="T31">
-        <v>0.0003274562295189734</v>
+        <v>0.0001913320178934634</v>
       </c>
     </row>
   </sheetData>
